--- a/DATA_goal/Junction_Flooding_361.xlsx
+++ b/DATA_goal/Junction_Flooding_361.xlsx
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>36764.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36764.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.57</v>
+        <v>95.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.92</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36764.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AD4" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36764.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_361.xlsx
+++ b/DATA_goal/Junction_Flooding_361.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36764.04861111111</v>
+        <v>45042.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36764.05555555555</v>
+        <v>45042.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.41</v>
+        <v>5.765</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.21</v>
+        <v>3.615</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.454</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.77</v>
+        <v>12.323</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.51</v>
+        <v>9.539</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.97</v>
+        <v>4.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.95</v>
+        <v>21.211</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.36</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.69</v>
+        <v>2.836</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.02</v>
+        <v>4.019</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.52</v>
+        <v>4.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.16</v>
+        <v>5.003</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.26</v>
+        <v>1.456</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.77</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.26</v>
+        <v>6.245</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.17</v>
+        <v>4.159</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.459</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.755</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.67</v>
+        <v>61.386</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.92</v>
+        <v>12.859</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.25</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.19</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.78</v>
+        <v>4.129</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.195</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.36</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.52</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.1</v>
+        <v>3.508</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.85</v>
+        <v>4.086</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.08</v>
+        <v>4.974</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.79</v>
+        <v>19.661</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.29</v>
+        <v>2.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.81</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36764.0625</v>
+        <v>45042.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.55</v>
+        <v>0.373</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.86</v>
+        <v>0.181</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.787</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.62</v>
+        <v>0.889</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.4</v>
+        <v>5.975</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.72</v>
+        <v>0.107</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.76</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.86</v>
+        <v>0.261</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.24</v>
+        <v>0.531</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.76</v>
+        <v>0.587</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.42</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>72.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.77</v>
+        <v>1.461</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.59</v>
+        <v>0.827</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.26</v>
+        <v>0.286</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.461</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.98</v>
+        <v>2.541</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.95</v>
+        <v>0.399</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.56</v>
+        <v>0.429</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.284</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.772</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.57</v>
+        <v>5.875</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.58</v>
+        <v>0.041</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.07</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36764.06944444445</v>
+        <v>45042.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.26</v>
+        <v>4.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.65</v>
+        <v>3.47</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.22</v>
+        <v>10.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.81</v>
+        <v>8.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>3.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.41</v>
+        <v>12.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.83</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.44</v>
+        <v>2.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.4</v>
+        <v>3.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.09</v>
+        <v>4.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.53</v>
+        <v>5.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.33</v>
+        <v>50.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.47</v>
+        <v>10.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.45</v>
+        <v>6.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.93</v>
+        <v>3.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.31</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.49</v>
+        <v>2.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.7</v>
+        <v>3.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.25</v>
+        <v>4.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.73</v>
+        <v>11.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>1.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36764.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_361.xlsx
+++ b/DATA_goal/Junction_Flooding_361.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45042.50694444445</v>
+        <v>36764.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.737</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.527</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.029</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.827</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.89</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.745</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.499</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.687</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.44</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.208</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.679</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.314</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.706</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.663</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.445</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.568</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.441</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.244</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.823</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.754</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.534</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.795</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.632</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.069</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.634</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.955</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.86</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.744</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.181</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.455</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.233</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.422</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.92</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45042.51388888889</v>
+        <v>36764.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.765</v>
+        <v>8.411</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.615</v>
+        <v>6.214</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.454</v>
+        <v>1.355</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.323</v>
+        <v>18.774</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.539</v>
+        <v>14.506</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.538</v>
+        <v>5.968</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>21.211</v>
+        <v>24.954</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.981</v>
+        <v>10.362</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.836</v>
+        <v>4.692</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.019</v>
+        <v>6.024</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.9</v>
+        <v>7.515</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.003</v>
+        <v>8.161</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.456</v>
+        <v>2.261</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.512</v>
+        <v>6.767</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.245</v>
+        <v>9.257999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.159</v>
+        <v>6.166</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.459</v>
+        <v>0.495</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.755</v>
+        <v>0.58</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.386</v>
+        <v>95.67100000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.859</v>
+        <v>18.923</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.164</v>
+        <v>6.247</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>12.191</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.129</v>
+        <v>6.776</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.195</v>
+        <v>0.949</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>13.361</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.678</v>
+        <v>5.517</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.508</v>
+        <v>5.098</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.086</v>
+        <v>5.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.974</v>
+        <v>8.081</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.661</v>
+        <v>22.785</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.17</v>
+        <v>3.291</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.208</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45042.52083333334</v>
+        <v>36764.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.373</v>
+        <v>6.551</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.181</v>
+        <v>4.858</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.787</v>
+        <v>0.914</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.889</v>
+        <v>14.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>11.411</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.975</v>
+        <v>21.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.582</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.107</v>
+        <v>3.72</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.16</v>
+        <v>4.759</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.261</v>
+        <v>5.858</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>6.352</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.733</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.531</v>
+        <v>7.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.587</v>
+        <v>4.757</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.912</v>
+        <v>0.317</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.418</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>72.788</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.461</v>
+        <v>14.771</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.827</v>
+        <v>9.586</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.286</v>
+        <v>5.262</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.72</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.541</v>
+        <v>10.978</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.307</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.399</v>
+        <v>3.947</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.429</v>
+        <v>4.565</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.284</v>
+        <v>6.252</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.772</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.875</v>
+        <v>19.571</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.041</v>
+        <v>2.578</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.454</v>
+        <v>6.074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45042.52777777778</v>
+        <v>36764.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.71</v>
+        <v>2.264</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.47</v>
+        <v>1.655</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.411</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21.328</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.472</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.311</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.733000000000001</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>36764.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AC5" s="4" t="n">
+      <c r="L6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>3.27</v>
       </c>
-      <c r="AD5" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4.34</v>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_361.xlsx
+++ b/DATA_goal/Junction_Flooding_361.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36764.04861111111</v>
+        <v>45042.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.971</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.342</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.281</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.251</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.378</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.239</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.412</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.207000000000001</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.471</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.767</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.829000000000001</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.124</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.871</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.593</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.541</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.247</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.315</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.838</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.072</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.924</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.517</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.296</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.767</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.035</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.721</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.104</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.808</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36764.05555555555</v>
+        <v>45042.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.411</v>
+        <v>5.765</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.214</v>
+        <v>3.615</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.355</v>
+        <v>1.454</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.774</v>
+        <v>12.323</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.506</v>
+        <v>9.539</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.968</v>
+        <v>4.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.954</v>
+        <v>21.211</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.362</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.692</v>
+        <v>2.836</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.024</v>
+        <v>4.019</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.515</v>
+        <v>4.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.161</v>
+        <v>5.003</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.261</v>
+        <v>1.456</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.767</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.257999999999999</v>
+        <v>6.245</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.166</v>
+        <v>4.159</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.495</v>
+        <v>1.459</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.755</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.67100000000001</v>
+        <v>61.386</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.923</v>
+        <v>12.859</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.247</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.191</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.776</v>
+        <v>4.129</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.949</v>
+        <v>1.195</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.361</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.517</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.098</v>
+        <v>3.508</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.85</v>
+        <v>4.086</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.081</v>
+        <v>4.974</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.945</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.785</v>
+        <v>19.661</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.291</v>
+        <v>2.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.809</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36764.0625</v>
+        <v>45042.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.551</v>
+        <v>0.373</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.858</v>
+        <v>0.181</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.914</v>
+        <v>0.787</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.62</v>
+        <v>0.889</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.411</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.4</v>
+        <v>5.975</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.72</v>
+        <v>0.107</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.759</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.858</v>
+        <v>0.261</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.352</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.733</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.24</v>
+        <v>0.531</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.757</v>
+        <v>0.587</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.317</v>
+        <v>0.912</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.418</v>
+        <v>0.32</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.788</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.771</v>
+        <v>1.461</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.586</v>
+        <v>0.827</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.262</v>
+        <v>0.286</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.461</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.978</v>
+        <v>2.541</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.947</v>
+        <v>0.399</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.565</v>
+        <v>0.429</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.252</v>
+        <v>0.284</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.627</v>
+        <v>0.772</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.571</v>
+        <v>5.875</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.578</v>
+        <v>0.041</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.074</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36764.06944444445</v>
+        <v>45042.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.264</v>
+        <v>4.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.655</v>
+        <v>3.47</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.22</v>
+        <v>10.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.81</v>
+        <v>8.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.443</v>
+        <v>3.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.411</v>
+        <v>12.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.826</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.437</v>
+        <v>2.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.404</v>
+        <v>3.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.09</v>
+        <v>4.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.335</v>
+        <v>4.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.638</v>
+        <v>1.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.528</v>
+        <v>5.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.864</v>
+        <v>3.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.208</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.236</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.328</v>
+        <v>50.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.472</v>
+        <v>10.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.735</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.455</v>
+        <v>6.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.933</v>
+        <v>3.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.264</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.311</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.533</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.49</v>
+        <v>2.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.697</v>
+        <v>3.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.255</v>
+        <v>4.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.733000000000001</v>
+        <v>11.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>1.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.173</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36764.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>
